--- a/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
+++ b/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas\Docs importantes\Experimento 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E450EE-60FE-4A2C-8D24-D7F49436C24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03CB0F-1540-4EF6-B146-E7A8FF8521F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E31950E5-B87D-4082-9B6D-4E35DC74FD63}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time(s)</t>
   </si>
 </sst>
 </file>
@@ -196,15 +196,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,21 +224,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +574,7 @@
   <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,100 +597,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <f>AVERAGE(B8:B31)</f>
         <v>0.19618218904409326</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C8:C31)</f>
         <v>0.22997033592682645</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0.27630198349910806</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>13521.579040857947</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>13.625</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>0.97912192684524302</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>477.18573182234724</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>161.56299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <f>AVERAGE(I8:I31)</f>
         <v>3.6551731006065256E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J8:J31)</f>
         <v>0.25718415452518861</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>0.13346467885966201</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>12979.496497820119</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>13.916666666666666</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>0.9802344737390557</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>476.02510360695607</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>5.9119999999999999</v>
       </c>
     </row>

--- a/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
+++ b/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03CB0F-1540-4EF6-B146-E7A8FF8521F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83119F7-90E5-463F-ABAF-4F45CEC6FF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E31950E5-B87D-4082-9B6D-4E35DC74FD63}"/>
+    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{E31950E5-B87D-4082-9B6D-4E35DC74FD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -577,26 +577,26 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -623,7 +623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>161.56299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
         <v>5.9119999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -789,7 +789,7 @@
         <v>143.518537264081</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -836,7 +836,7 @@
         <v>108.04026924297899</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -883,7 +883,7 @@
         <v>279.88605080719998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -930,7 +930,7 @@
         <v>170.173693906019</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -977,7 +977,7 @@
         <v>203.088768561851</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>189.409464218229</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>529.26057631856395</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>106.053357697938</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>105.017773532276</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>190.671529533464</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>196.51723417856101</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>540.71825776555102</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>177.922798845887</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>643.50503818751599</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>1044.7149406674801</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>160.214912743761</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>95.088498517308196</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>74.301529466347603</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>77.389134329248506</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>64.336969626940004</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>6270.88195312485</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>16.553729701728798</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>13.805471630108199</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>

--- a/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
+++ b/Docs importantes/Experimento 2/criterio1ConPCVScriterio1SinPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83119F7-90E5-463F-ABAF-4F45CEC6FF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B0E43-0144-475E-B368-E627A852E795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{E31950E5-B87D-4082-9B6D-4E35DC74FD63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E31950E5-B87D-4082-9B6D-4E35DC74FD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>GRASPConstructive_Criterion1_Seed_13_SolCount_100_alpha_random</t>
   </si>
@@ -142,21 +142,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-a_9_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_18_n50_m15.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_33_n125_m12.txt</t>
-  </si>
-  <si>
-    <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
     <t>Time(s)</t>
@@ -574,7 +559,7 @@
   <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -629,31 +614,31 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE(B8:B31)</f>
-        <v>0.19618218904409326</v>
+        <v>0.16526984510779238</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C8:C31)</f>
-        <v>0.22997033592682645</v>
+        <v>0.26747950278811117</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0.27630198349910806</v>
+        <v>0.25875828124735345</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>13521.579040857947</v>
+        <v>8164.7307327935996</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>13.625</v>
+        <v>14.368421052631579</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>0.97912192684524302</v>
+        <v>0.97677561626869869</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>477.18573182234724</v>
+        <v>266.49197068177102</v>
       </c>
       <c r="I3" s="4">
         <v>161.56299999999999</v>
@@ -665,31 +650,31 @@
       </c>
       <c r="B4" s="5">
         <f>AVERAGE(I8:I31)</f>
-        <v>3.6551731006065256E-2</v>
+        <v>3.8651810594127589E-2</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J8:J31)</f>
-        <v>0.25718415452518861</v>
+        <v>0.29404072246504748</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>0.13346467885966201</v>
+        <v>0.14651234663975574</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>12979.496497820119</v>
+        <v>7974.4601390268881</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>13.916666666666666</v>
+        <v>14.789473684210526</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>0.9802344737390557</v>
+        <v>0.97943313385082875</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>476.02510360695607</v>
+        <v>265.0259139886453</v>
       </c>
       <c r="I4" s="6">
         <v>5.9119999999999999</v>
@@ -1636,239 +1621,84 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.27272727272727199</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5.6948740253477001E-2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.26025680248135002</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2110.8227979288199</v>
-      </c>
-      <c r="F27" s="1">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.99381568168427503</v>
-      </c>
-      <c r="H27" s="1">
-        <v>64.336969626940004</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.122808811680011</v>
-      </c>
-      <c r="K27" s="1">
-        <v>7.5757575757575593E-2</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2043.1582245306899</v>
-      </c>
-      <c r="M27" s="1">
-        <v>12</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1.0035544834954799</v>
-      </c>
-      <c r="O27" s="1">
-        <v>64.336969626940004</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.17647058823529399</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3.19470015236736E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.36663923827436201</v>
-      </c>
-      <c r="E28" s="1">
-        <v>166537.045937822</v>
-      </c>
-      <c r="F28" s="1">
-        <v>17</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.99588472603432199</v>
-      </c>
-      <c r="H28" s="1">
-        <v>6270.88195312485</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>8.9217168422059595E-2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1.03267973856208E-2</v>
-      </c>
-      <c r="L28" s="1">
-        <v>157167.72438154899</v>
-      </c>
-      <c r="M28" s="1">
-        <v>19</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.99370702891807094</v>
-      </c>
-      <c r="O28" s="1">
-        <v>6270.88195312485</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.78571428571428503</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.7632850241545802E-3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="E29" s="1">
-        <v>152.39932656251901</v>
-      </c>
-      <c r="F29" s="1">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.98490322760397297</v>
-      </c>
-      <c r="H29" s="1">
-        <v>16.553729701728798</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5.1871980676328498E-2</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>198.654948973627</v>
-      </c>
-      <c r="M29" s="1">
-        <v>9</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.977060720339616</v>
-      </c>
-      <c r="O29" s="1">
-        <v>16.553729701728798</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.305051246001181</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.26315789473684198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>164.49820741234299</v>
-      </c>
-      <c r="F30" s="1">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.99518201158143405</v>
-      </c>
-      <c r="H30" s="1">
-        <v>13.805471630108199</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.14285714285714199</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.211280233103082</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L30" s="1">
-        <v>155.382356491265</v>
-      </c>
-      <c r="M30" s="1">
-        <v>7</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.961671200797378</v>
-      </c>
-      <c r="O30" s="1">
-        <v>13.805471630108199</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3.6467236467236402E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.269230769230769</v>
-      </c>
-      <c r="E31" s="1">
-        <v>423.24678778661098</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.970403888276552</v>
-      </c>
-      <c r="H31" s="1">
-        <v>23.531996699057999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.110467787887142</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>428.25339462736503</v>
-      </c>
-      <c r="M31" s="1">
-        <v>6</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.98040439302104199</v>
-      </c>
-      <c r="O31" s="1">
-        <v>23.531996699057999</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
